--- a/resources/testdata/ExcelData.xlsx
+++ b/resources/testdata/ExcelData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>verify_login</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>2wsx1qaz~</t>
+  </si>
+  <si>
+    <t>3131313~</t>
   </si>
   <si>
     <t>test_method_name</t>
@@ -518,74 +521,77 @@
     </row>
     <row r="3">
       <c r="A3" s="4"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
@@ -599,9 +605,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +639,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -635,20 +648,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -658,29 +671,29 @@
       <c r="C3" s="4"/>
       <c r="D3" s="10"/>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10"/>
     </row>
@@ -688,7 +701,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -721,22 +734,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7">
         <v>9076.0</v>
@@ -750,7 +763,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -760,7 +773,7 @@
     <row r="6">
       <c r="A6" s="4"/>
       <c r="B6" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -768,22 +781,22 @@
       <c r="A7" s="9"/>
       <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
       <c r="B11" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -791,28 +804,28 @@
       <c r="A12" s="9"/>
       <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10"/>
     </row>
@@ -821,7 +834,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
